--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1119.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1119.xlsx
@@ -351,13 +351,13 @@
         <v>1.104264817516183</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>1.173147150292623</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1119.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1119.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.104264817516183</v>
+        <v>1.168023824691772</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>2.375645160675049</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>2.385340213775635</v>
       </c>
       <c r="E1">
-        <v>1.173147150292623</v>
+        <v>1.212505340576172</v>
       </c>
     </row>
   </sheetData>
